--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_25_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2024311.633546509</v>
+        <v>2023663.274319703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11517486.19315932</v>
+        <v>11517486.19315933</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7762480.854031275</v>
+        <v>7762480.854031277</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="C11" t="n">
-        <v>63.77305697545735</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>72.40356150710426</v>
+        <v>26.58103226146711</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.19202471399032</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="Y11" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.80690084956988</v>
+        <v>11.80690084956993</v>
       </c>
       <c r="V12" t="n">
-        <v>18.68115031993852</v>
+        <v>18.68115031993858</v>
       </c>
       <c r="W12" t="n">
-        <v>37.57554633143286</v>
+        <v>37.57554633143292</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.556120159855257</v>
+        <v>6.556120159855316</v>
       </c>
       <c r="T13" t="n">
-        <v>13.00701368779516</v>
+        <v>13.00701368779521</v>
       </c>
       <c r="U13" t="n">
-        <v>72.18913543452329</v>
+        <v>72.18913543452335</v>
       </c>
       <c r="V13" t="n">
-        <v>38.01820649434126</v>
+        <v>38.01820649434131</v>
       </c>
       <c r="W13" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="X13" t="n">
-        <v>11.59021855955041</v>
+        <v>11.59021855955046</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.465216522608046</v>
+        <v>4.465216522608102</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.66755295935824</v>
+        <v>56.66755295935822</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.105504016099172</v>
+        <v>7.105504016099229</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="W14" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>11.80690084956988</v>
+        <v>11.80690084956993</v>
       </c>
       <c r="V15" t="n">
-        <v>18.68115031993852</v>
+        <v>18.68115031993858</v>
       </c>
       <c r="W15" t="n">
-        <v>37.57554633143286</v>
+        <v>37.57554633143292</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>6.556120159855257</v>
+        <v>6.556120159855316</v>
       </c>
       <c r="T16" t="n">
-        <v>13.00701368779516</v>
+        <v>13.00701368779521</v>
       </c>
       <c r="U16" t="n">
-        <v>72.18913543452329</v>
+        <v>72.18913543452335</v>
       </c>
       <c r="V16" t="n">
-        <v>38.01820649434126</v>
+        <v>38.01820649434131</v>
       </c>
       <c r="W16" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="X16" t="n">
-        <v>11.59021855955041</v>
+        <v>11.59021855955046</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.465216522608046</v>
+        <v>4.465216522608102</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>34.08616975171168</v>
       </c>
       <c r="F17" t="n">
-        <v>59.03184542116092</v>
+        <v>59.03184542116134</v>
       </c>
       <c r="G17" t="n">
         <v>67.03114514009141</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.8896413429302</v>
+        <v>34.88964134293047</v>
       </c>
       <c r="C20" t="n">
-        <v>17.42869145045745</v>
+        <v>17.4286914504574</v>
       </c>
       <c r="D20" t="n">
         <v>6.838841300132856</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.5089008178947</v>
+        <v>161.5089008178946</v>
       </c>
       <c r="C29" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D29" t="n">
-        <v>133.4581007750971</v>
+        <v>133.458100775097</v>
       </c>
       <c r="E29" t="n">
-        <v>160.7054292266759</v>
+        <v>160.7054292266758</v>
       </c>
       <c r="F29" t="n">
         <v>185.6511048961255</v>
@@ -2807,7 +2807,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H29" t="n">
-        <v>113.8728323920994</v>
+        <v>113.8728323920993</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>30.08652069789111</v>
+        <v>30.08652069789108</v>
       </c>
       <c r="V29" t="n">
         <v>106.527317624549</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>4.701396833470715</v>
+        <v>4.701396833470687</v>
       </c>
       <c r="V30" t="n">
-        <v>11.57564630383936</v>
+        <v>11.57564630383933</v>
       </c>
       <c r="W30" t="n">
-        <v>30.4700423153337</v>
+        <v>30.47004231533367</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>5.901509671695996</v>
+        <v>5.901509671695968</v>
       </c>
       <c r="U31" t="n">
-        <v>65.08363141842413</v>
+        <v>65.0836314184241</v>
       </c>
       <c r="V31" t="n">
-        <v>30.9127024782421</v>
+        <v>30.91270247824207</v>
       </c>
       <c r="W31" t="n">
-        <v>65.2980574910051</v>
+        <v>65.29805749100507</v>
       </c>
       <c r="X31" t="n">
-        <v>4.484714543451247</v>
+        <v>4.484714543451219</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.5089008178946</v>
+        <v>161.5089008178947</v>
       </c>
       <c r="C32" t="n">
         <v>144.0479509254216</v>
       </c>
       <c r="D32" t="n">
-        <v>133.458100775097</v>
+        <v>133.4581007750971</v>
       </c>
       <c r="E32" t="n">
-        <v>160.7054292266758</v>
+        <v>160.7054292266759</v>
       </c>
       <c r="F32" t="n">
         <v>185.6511048961255</v>
@@ -3044,7 +3044,7 @@
         <v>193.6504046150556</v>
       </c>
       <c r="H32" t="n">
-        <v>113.8728323920993</v>
+        <v>113.8728323920994</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>30.08652069789107</v>
+        <v>30.0865206978911</v>
       </c>
       <c r="V32" t="n">
         <v>106.527317624549</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>4.701396833470687</v>
+        <v>4.701396833470715</v>
       </c>
       <c r="V33" t="n">
-        <v>11.57564630383933</v>
+        <v>11.57564630383936</v>
       </c>
       <c r="W33" t="n">
-        <v>30.47004231533367</v>
+        <v>30.4700423153337</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>5.901509671695967</v>
+        <v>5.901509671695996</v>
       </c>
       <c r="U34" t="n">
-        <v>65.0836314184241</v>
+        <v>65.08363141842413</v>
       </c>
       <c r="V34" t="n">
-        <v>30.91270247824207</v>
+        <v>30.9127024782421</v>
       </c>
       <c r="W34" t="n">
-        <v>65.29805749100507</v>
+        <v>65.2980574910051</v>
       </c>
       <c r="X34" t="n">
-        <v>4.484714543451219</v>
+        <v>4.484714543451247</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.0935890264972</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C35" t="n">
         <v>120.6326391340241</v>
       </c>
       <c r="D35" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E35" t="n">
-        <v>137.2901174352784</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F35" t="n">
         <v>162.235793104728</v>
@@ -3281,7 +3281,7 @@
         <v>170.2350928236581</v>
       </c>
       <c r="H35" t="n">
-        <v>90.45752060070186</v>
+        <v>90.45752060070183</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>6.671208906493604</v>
+        <v>6.671208906493575</v>
       </c>
       <c r="V35" t="n">
-        <v>83.1120058331515</v>
+        <v>83.11200583315147</v>
       </c>
       <c r="W35" t="n">
         <v>104.6007160804296</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>7.0547305239362</v>
+        <v>7.054730523936172</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>41.66831962702663</v>
+        <v>41.66831962702661</v>
       </c>
       <c r="V37" t="n">
-        <v>7.497390686844597</v>
+        <v>7.497390686844568</v>
       </c>
       <c r="W37" t="n">
-        <v>41.8827456996076</v>
+        <v>41.88274569960757</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.0935890264972</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C38" t="n">
-        <v>120.6326391340241</v>
+        <v>120.632639134024</v>
       </c>
       <c r="D38" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836994</v>
       </c>
       <c r="E38" t="n">
-        <v>137.2901174352784</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F38" t="n">
-        <v>162.235793104728</v>
+        <v>162.2357931047279</v>
       </c>
       <c r="G38" t="n">
-        <v>170.2350928236581</v>
+        <v>170.235092823658</v>
       </c>
       <c r="H38" t="n">
-        <v>90.45752060070186</v>
+        <v>90.45752060070174</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>6.671208906493607</v>
+        <v>6.67120890649349</v>
       </c>
       <c r="V38" t="n">
-        <v>83.1120058331515</v>
+        <v>83.11200583315139</v>
       </c>
       <c r="W38" t="n">
-        <v>104.6007160804296</v>
+        <v>104.6007160804295</v>
       </c>
       <c r="X38" t="n">
-        <v>125.0908480414856</v>
+        <v>125.0908480414855</v>
       </c>
       <c r="Y38" t="n">
-        <v>141.5976860190702</v>
+        <v>141.5976860190701</v>
       </c>
     </row>
     <row r="39">
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>7.0547305239362</v>
+        <v>7.054730523936087</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.66831962702663</v>
+        <v>41.66831962702652</v>
       </c>
       <c r="V40" t="n">
-        <v>7.497390686844597</v>
+        <v>7.497390686844483</v>
       </c>
       <c r="W40" t="n">
-        <v>41.8827456996076</v>
+        <v>41.88274569960748</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C41" t="n">
-        <v>120.6326391340242</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D41" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E41" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352783</v>
       </c>
       <c r="F41" t="n">
-        <v>162.2357931047281</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G41" t="n">
-        <v>170.2350928236582</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H41" t="n">
-        <v>90.45752060070194</v>
+        <v>90.45752060070183</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>6.671208906493693</v>
+        <v>6.671208906493579</v>
       </c>
       <c r="V41" t="n">
-        <v>83.11200583315158</v>
+        <v>83.11200583315147</v>
       </c>
       <c r="W41" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X41" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="42">
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>7.054730523936286</v>
+        <v>7.054730523936172</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>41.66831962702672</v>
+        <v>41.66831962702661</v>
       </c>
       <c r="V43" t="n">
-        <v>7.497390686844682</v>
+        <v>7.497390686844568</v>
       </c>
       <c r="W43" t="n">
-        <v>41.88274569960768</v>
+        <v>41.88274569960757</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.0935890264973</v>
+        <v>138.0935890264971</v>
       </c>
       <c r="C44" t="n">
-        <v>120.6326391340242</v>
+        <v>120.6326391340241</v>
       </c>
       <c r="D44" t="n">
-        <v>110.0427889836996</v>
+        <v>110.0427889836995</v>
       </c>
       <c r="E44" t="n">
-        <v>137.2901174352785</v>
+        <v>137.2901174352777</v>
       </c>
       <c r="F44" t="n">
-        <v>162.2357931047281</v>
+        <v>162.235793104728</v>
       </c>
       <c r="G44" t="n">
-        <v>170.2350928236582</v>
+        <v>170.2350928236581</v>
       </c>
       <c r="H44" t="n">
-        <v>90.45752060070194</v>
+        <v>90.45752060070183</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.671208906493693</v>
+        <v>6.671208906493579</v>
       </c>
       <c r="V44" t="n">
-        <v>83.11200583315158</v>
+        <v>83.11200583315147</v>
       </c>
       <c r="W44" t="n">
-        <v>104.6007160804297</v>
+        <v>104.6007160804296</v>
       </c>
       <c r="X44" t="n">
-        <v>125.0908480414857</v>
+        <v>125.0908480414856</v>
       </c>
       <c r="Y44" t="n">
-        <v>141.5976860190703</v>
+        <v>141.5976860190702</v>
       </c>
     </row>
     <row r="45">
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>7.054730523936286</v>
+        <v>7.054730523936172</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>41.66831962702672</v>
+        <v>41.66831962702661</v>
       </c>
       <c r="V46" t="n">
-        <v>7.497390686844682</v>
+        <v>7.497390686844568</v>
       </c>
       <c r="W46" t="n">
-        <v>41.88274569960768</v>
+        <v>41.88274569960757</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.4793354151804</v>
+        <v>32.64181245740381</v>
       </c>
       <c r="C11" t="n">
-        <v>152.0621061470416</v>
+        <v>32.64181245740381</v>
       </c>
       <c r="D11" t="n">
-        <v>152.0621061470416</v>
+        <v>32.64181245740381</v>
       </c>
       <c r="E11" t="n">
-        <v>152.0621061470416</v>
+        <v>32.64181245740381</v>
       </c>
       <c r="F11" t="n">
-        <v>78.92719553380496</v>
+        <v>32.64181245740381</v>
       </c>
       <c r="G11" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H11" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I11" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J11" t="n">
-        <v>5.792284920568341</v>
+        <v>74.44670462156051</v>
       </c>
       <c r="K11" t="n">
-        <v>29.23496178831955</v>
+        <v>122.3582078794855</v>
       </c>
       <c r="L11" t="n">
-        <v>74.57566835231739</v>
+        <v>167.6989144434832</v>
       </c>
       <c r="M11" t="n">
-        <v>74.57566835231739</v>
+        <v>167.6989144434832</v>
       </c>
       <c r="N11" t="n">
-        <v>74.57566835231739</v>
+        <v>239.3784403355165</v>
       </c>
       <c r="O11" t="n">
-        <v>146.2551942443506</v>
+        <v>264.4869915215676</v>
       </c>
       <c r="P11" t="n">
-        <v>217.9347201363838</v>
+        <v>264.4869915215676</v>
       </c>
       <c r="Q11" t="n">
-        <v>289.614246028417</v>
+        <v>264.4869915215676</v>
       </c>
       <c r="R11" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="S11" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="T11" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="U11" t="n">
-        <v>289.614246028417</v>
+        <v>252.0465442971139</v>
       </c>
       <c r="V11" t="n">
-        <v>289.614246028417</v>
+        <v>178.9116336838772</v>
       </c>
       <c r="W11" t="n">
-        <v>289.614246028417</v>
+        <v>178.9116336838772</v>
       </c>
       <c r="X11" t="n">
-        <v>289.614246028417</v>
+        <v>105.7767230706405</v>
       </c>
       <c r="Y11" t="n">
-        <v>216.4793354151804</v>
+        <v>105.7767230706405</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="I12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="J12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="K12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="L12" t="n">
-        <v>5.792284920568341</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="M12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="N12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="O12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="P12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="R12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="S12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="T12" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="U12" t="n">
-        <v>62.6172310330647</v>
+        <v>62.61723103306481</v>
       </c>
       <c r="V12" t="n">
-        <v>43.74738222504598</v>
+        <v>43.74738222504604</v>
       </c>
       <c r="W12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C13" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D13" t="n">
-        <v>5.792284920568341</v>
+        <v>37.69580430545583</v>
       </c>
       <c r="E13" t="n">
-        <v>5.792284920568341</v>
+        <v>37.69580430545583</v>
       </c>
       <c r="F13" t="n">
-        <v>5.792284920568341</v>
+        <v>37.69580430545583</v>
       </c>
       <c r="G13" t="n">
-        <v>5.792284920568341</v>
+        <v>37.69580430545583</v>
       </c>
       <c r="H13" t="n">
-        <v>5.792284920568341</v>
+        <v>90.75660699791656</v>
       </c>
       <c r="I13" t="n">
-        <v>5.792284920568341</v>
+        <v>154.546569499018</v>
       </c>
       <c r="J13" t="n">
-        <v>5.792284920568341</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="K13" t="n">
-        <v>77.47181081260155</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="L13" t="n">
-        <v>149.1513367046348</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="M13" t="n">
-        <v>220.830862596668</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="N13" t="n">
-        <v>220.830862596668</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="O13" t="n">
-        <v>220.830862596668</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="P13" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="Q13" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="R13" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="S13" t="n">
-        <v>219.6037517952375</v>
+        <v>219.6037517952378</v>
       </c>
       <c r="T13" t="n">
-        <v>206.4653541307979</v>
+        <v>206.4653541307982</v>
       </c>
       <c r="U13" t="n">
-        <v>133.5470355100673</v>
+        <v>133.5470355100675</v>
       </c>
       <c r="V13" t="n">
-        <v>95.14480672790441</v>
+        <v>95.14480672790459</v>
       </c>
       <c r="W13" t="n">
-        <v>22.00989611466779</v>
+        <v>22.00989611466791</v>
       </c>
       <c r="X13" t="n">
-        <v>10.30260464037445</v>
+        <v>10.30260464037451</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.92719553380496</v>
+        <v>78.92719553380503</v>
       </c>
       <c r="C14" t="n">
-        <v>78.92719553380496</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D14" t="n">
-        <v>78.92719553380496</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E14" t="n">
-        <v>78.92719553380496</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F14" t="n">
-        <v>78.92719553380496</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G14" t="n">
-        <v>78.92719553380496</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H14" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I14" t="n">
-        <v>5.792284920568341</v>
+        <v>25.71165856611162</v>
       </c>
       <c r="J14" t="n">
-        <v>43.24162735004627</v>
+        <v>97.39118445814489</v>
       </c>
       <c r="K14" t="n">
-        <v>91.15313060797133</v>
+        <v>97.39118445814489</v>
       </c>
       <c r="L14" t="n">
-        <v>91.15313060797133</v>
+        <v>142.7318910221426</v>
       </c>
       <c r="M14" t="n">
-        <v>149.3844442118649</v>
+        <v>142.7318910221426</v>
       </c>
       <c r="N14" t="n">
-        <v>193.4339668843751</v>
+        <v>214.4114169141759</v>
       </c>
       <c r="O14" t="n">
-        <v>193.4339668843751</v>
+        <v>269.8830755592296</v>
       </c>
       <c r="P14" t="n">
-        <v>237.3364601073259</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="Q14" t="n">
-        <v>274.9240679802544</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="R14" t="n">
-        <v>274.9240679802544</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="S14" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="T14" t="n">
-        <v>282.4369692444785</v>
+        <v>282.4369692444786</v>
       </c>
       <c r="U14" t="n">
-        <v>282.4369692444785</v>
+        <v>282.4369692444786</v>
       </c>
       <c r="V14" t="n">
-        <v>282.4369692444785</v>
+        <v>209.3020586312419</v>
       </c>
       <c r="W14" t="n">
-        <v>209.3020586312418</v>
+        <v>209.3020586312419</v>
       </c>
       <c r="X14" t="n">
-        <v>136.1671480180052</v>
+        <v>136.1671480180053</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.1671480180052</v>
+        <v>136.1671480180053</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.05527203031752</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K15" t="n">
-        <v>55.05210049307681</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P15" t="n">
-        <v>74.5433935073777</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="R15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="S15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="T15" t="n">
-        <v>74.5433935073777</v>
+        <v>74.54339350737787</v>
       </c>
       <c r="U15" t="n">
-        <v>62.6172310330647</v>
+        <v>62.61723103306481</v>
       </c>
       <c r="V15" t="n">
-        <v>43.74738222504598</v>
+        <v>43.74738222504604</v>
       </c>
       <c r="W15" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X15" t="n">
-        <v>14.05527203031752</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.05527203031752</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C16" t="n">
-        <v>5.792284920568341</v>
+        <v>52.19617449411861</v>
       </c>
       <c r="D16" t="n">
-        <v>70.64120909372998</v>
+        <v>52.19617449411861</v>
       </c>
       <c r="E16" t="n">
-        <v>70.64120909372998</v>
+        <v>119.204793935207</v>
       </c>
       <c r="F16" t="n">
-        <v>70.64120909372998</v>
+        <v>119.204793935207</v>
       </c>
       <c r="G16" t="n">
-        <v>116.498178218575</v>
+        <v>119.204793935207</v>
       </c>
       <c r="H16" t="n">
-        <v>116.498178218575</v>
+        <v>119.204793935207</v>
       </c>
       <c r="I16" t="n">
-        <v>116.498178218575</v>
+        <v>154.546569499018</v>
       </c>
       <c r="J16" t="n">
-        <v>154.5465694990176</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="K16" t="n">
-        <v>154.5465694990176</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="L16" t="n">
-        <v>154.5465694990176</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="M16" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="N16" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="O16" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="P16" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="Q16" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="R16" t="n">
-        <v>226.2260953910508</v>
+        <v>226.2260953910512</v>
       </c>
       <c r="S16" t="n">
-        <v>219.6037517952375</v>
+        <v>219.6037517952378</v>
       </c>
       <c r="T16" t="n">
-        <v>206.4653541307979</v>
+        <v>206.4653541307982</v>
       </c>
       <c r="U16" t="n">
-        <v>133.5470355100673</v>
+        <v>133.5470355100675</v>
       </c>
       <c r="V16" t="n">
-        <v>95.14480672790441</v>
+        <v>95.14480672790459</v>
       </c>
       <c r="W16" t="n">
-        <v>22.00989611466779</v>
+        <v>22.00989611466791</v>
       </c>
       <c r="X16" t="n">
-        <v>10.30260464037445</v>
+        <v>10.30260464037451</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>192.0717728635527</v>
+        <v>192.0717728635526</v>
       </c>
       <c r="C17" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247067</v>
       </c>
       <c r="D17" t="n">
-        <v>167.5591135195222</v>
+        <v>167.5591135195219</v>
       </c>
       <c r="E17" t="n">
-        <v>133.1286390228437</v>
+        <v>133.1286390228435</v>
       </c>
       <c r="F17" t="n">
-        <v>73.50051233480208</v>
+        <v>73.5005123348021</v>
       </c>
       <c r="G17" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H17" t="n">
-        <v>18.41124773260454</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I17" t="n">
-        <v>90.09077362463775</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J17" t="n">
-        <v>90.09077362463775</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K17" t="n">
-        <v>90.09077362463775</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="L17" t="n">
-        <v>161.7702995166709</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="M17" t="n">
-        <v>161.7702995166709</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="N17" t="n">
-        <v>161.7702995166709</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="O17" t="n">
-        <v>161.7702995166709</v>
+        <v>77.47181081260162</v>
       </c>
       <c r="P17" t="n">
-        <v>161.7702995166709</v>
+        <v>149.1513367046349</v>
       </c>
       <c r="Q17" t="n">
-        <v>161.7702995166709</v>
+        <v>149.1513367046349</v>
       </c>
       <c r="R17" t="n">
-        <v>233.4498254087042</v>
+        <v>220.8308625966682</v>
       </c>
       <c r="S17" t="n">
-        <v>289.614246028417</v>
+        <v>220.8308625966682</v>
       </c>
       <c r="T17" t="n">
-        <v>289.614246028417</v>
+        <v>220.8308625966682</v>
       </c>
       <c r="U17" t="n">
-        <v>289.614246028417</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="V17" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="W17" t="n">
-        <v>288.2033688598688</v>
+        <v>288.2033688598689</v>
       </c>
       <c r="X17" t="n">
-        <v>266.0953887003547</v>
+        <v>266.0953887003548</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3138348261087</v>
+        <v>227.3138348261086</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192.0717728635528</v>
+        <v>192.071772863553</v>
       </c>
       <c r="C20" t="n">
-        <v>174.4670340247069</v>
+        <v>174.4670340247071</v>
       </c>
       <c r="D20" t="n">
-        <v>167.5591135195221</v>
+        <v>167.5591135195224</v>
       </c>
       <c r="E20" t="n">
-        <v>133.1286390228437</v>
+        <v>133.1286390228439</v>
       </c>
       <c r="F20" t="n">
-        <v>73.50051233480211</v>
+        <v>73.50051233480212</v>
       </c>
       <c r="G20" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H20" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I20" t="n">
-        <v>5.792284920568341</v>
+        <v>54.68464592040641</v>
       </c>
       <c r="J20" t="n">
-        <v>77.47181081260155</v>
+        <v>54.68464592040641</v>
       </c>
       <c r="K20" t="n">
-        <v>77.47181081260155</v>
+        <v>54.68464592040641</v>
       </c>
       <c r="L20" t="n">
-        <v>77.47181081260155</v>
+        <v>126.3641718124397</v>
       </c>
       <c r="M20" t="n">
-        <v>77.47181081260155</v>
+        <v>126.3641718124397</v>
       </c>
       <c r="N20" t="n">
-        <v>77.47181081260155</v>
+        <v>126.3641718124397</v>
       </c>
       <c r="O20" t="n">
-        <v>126.3641718124396</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="P20" t="n">
-        <v>126.3641718124396</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="Q20" t="n">
-        <v>126.3641718124396</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="R20" t="n">
-        <v>126.3641718124396</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="S20" t="n">
-        <v>198.0436977044728</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="T20" t="n">
-        <v>269.723223596506</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="U20" t="n">
-        <v>269.723223596506</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="V20" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="W20" t="n">
-        <v>288.2033688598686</v>
+        <v>288.2033688598689</v>
       </c>
       <c r="X20" t="n">
-        <v>266.0953887003545</v>
+        <v>266.0953887003548</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.3138348261086</v>
+        <v>227.313834826109</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192.0717728635522</v>
+        <v>192.0717728635529</v>
       </c>
       <c r="C23" t="n">
-        <v>174.4670340247062</v>
+        <v>174.4670340247069</v>
       </c>
       <c r="D23" t="n">
-        <v>167.5591135195216</v>
+        <v>167.5591135195222</v>
       </c>
       <c r="E23" t="n">
-        <v>133.1286390228436</v>
+        <v>133.1286390228437</v>
       </c>
       <c r="F23" t="n">
-        <v>73.50051233480211</v>
+        <v>73.50051233480212</v>
       </c>
       <c r="G23" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H23" t="n">
-        <v>5.792284920568341</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="I23" t="n">
-        <v>5.792284920568341</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="J23" t="n">
-        <v>5.792284920568341</v>
+        <v>18.41124773260454</v>
       </c>
       <c r="K23" t="n">
-        <v>5.792284920568341</v>
+        <v>90.09077362463782</v>
       </c>
       <c r="L23" t="n">
-        <v>5.792284920568341</v>
+        <v>126.3641718124397</v>
       </c>
       <c r="M23" t="n">
-        <v>5.792284920568341</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="N23" t="n">
-        <v>5.792284920568341</v>
+        <v>198.0436977044729</v>
       </c>
       <c r="O23" t="n">
-        <v>5.792284920568341</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="P23" t="n">
-        <v>74.57566835231739</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="Q23" t="n">
-        <v>74.57566835231739</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="R23" t="n">
-        <v>74.57566835231739</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="S23" t="n">
-        <v>146.2551942443506</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="T23" t="n">
-        <v>217.9347201363838</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="U23" t="n">
-        <v>289.614246028417</v>
+        <v>269.7232235965062</v>
       </c>
       <c r="V23" t="n">
-        <v>289.614246028417</v>
+        <v>289.6142460284173</v>
       </c>
       <c r="W23" t="n">
-        <v>288.2033688598683</v>
+        <v>288.2033688598689</v>
       </c>
       <c r="X23" t="n">
-        <v>266.0953887003543</v>
+        <v>266.0953887003548</v>
       </c>
       <c r="Y23" t="n">
-        <v>227.3138348261082</v>
+        <v>227.3138348261088</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y24" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="C25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="D25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="E25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="F25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="G25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="H25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="I25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="J25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="K25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="L25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="M25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="N25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="O25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="P25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="R25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="S25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="T25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="U25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="V25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="W25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="X25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.792284920568341</v>
+        <v>5.792284920568346</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>532.603308611559</v>
       </c>
       <c r="F26" t="n">
-        <v>345.076940029614</v>
+        <v>345.0769400296139</v>
       </c>
       <c r="G26" t="n">
         <v>149.4704707214771</v>
@@ -6221,31 +6221,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I26" t="n">
-        <v>61.40123032063606</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J26" t="n">
-        <v>304.4957480179195</v>
+        <v>110.136276376085</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3329672601058</v>
+        <v>110.136276376085</v>
       </c>
       <c r="L26" t="n">
-        <v>887.6196375371434</v>
+        <v>424.3736666458277</v>
       </c>
       <c r="M26" t="n">
-        <v>887.6196375371434</v>
+        <v>424.3736666458277</v>
       </c>
       <c r="N26" t="n">
-        <v>1168.972186180166</v>
+        <v>850.6603369228653</v>
       </c>
       <c r="O26" t="n">
-        <v>1231.478293801158</v>
+        <v>1189.285078639063</v>
       </c>
       <c r="P26" t="n">
-        <v>1445.831860331455</v>
+        <v>1558.80274192772</v>
       </c>
       <c r="Q26" t="n">
-        <v>1700.645757933627</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R26" t="n">
         <v>1700.645757933627</v>
@@ -6321,13 +6321,13 @@
         <v>34.44740769915455</v>
       </c>
       <c r="P27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R27" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S27" t="n">
         <v>81.66668593414828</v>
@@ -6373,31 +6373,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="G28" t="n">
-        <v>34.44740769915455</v>
+        <v>87.33882579993778</v>
       </c>
       <c r="H28" t="n">
-        <v>94.54265936755351</v>
+        <v>87.33882579993778</v>
       </c>
       <c r="I28" t="n">
-        <v>94.54265936755351</v>
+        <v>158.1632372769774</v>
       </c>
       <c r="J28" t="n">
-        <v>94.54265936755351</v>
+        <v>158.1632372769774</v>
       </c>
       <c r="K28" t="n">
-        <v>94.54265936755351</v>
+        <v>158.1632372769774</v>
       </c>
       <c r="L28" t="n">
-        <v>94.54265936755351</v>
+        <v>158.1632372769774</v>
       </c>
       <c r="M28" t="n">
-        <v>94.54265936755351</v>
+        <v>158.1632372769774</v>
       </c>
       <c r="N28" t="n">
-        <v>207.8621709343248</v>
+        <v>158.1632372769774</v>
       </c>
       <c r="O28" t="n">
-        <v>207.8621709343248</v>
+        <v>158.1632372769774</v>
       </c>
       <c r="P28" t="n">
         <v>207.8621709343248</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>975.2411681339772</v>
+        <v>975.2411681339782</v>
       </c>
       <c r="C29" t="n">
-        <v>829.7381874012281</v>
+        <v>829.7381874012291</v>
       </c>
       <c r="D29" t="n">
-        <v>694.9320250021401</v>
+        <v>694.9320250021411</v>
       </c>
       <c r="E29" t="n">
-        <v>532.6033086115585</v>
+        <v>532.6033086115594</v>
       </c>
       <c r="F29" t="n">
-        <v>345.0769400296135</v>
+        <v>345.0769400296144</v>
       </c>
       <c r="G29" t="n">
         <v>149.4704707214771</v>
@@ -6458,31 +6458,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I29" t="n">
-        <v>61.40123032063606</v>
+        <v>61.40123032063608</v>
       </c>
       <c r="J29" t="n">
         <v>304.4957480179195</v>
       </c>
       <c r="K29" t="n">
-        <v>339.8628936634763</v>
+        <v>680.3456586972359</v>
       </c>
       <c r="L29" t="n">
-        <v>586.7099601712282</v>
+        <v>1008.091058963731</v>
       </c>
       <c r="M29" t="n">
-        <v>761.3342690156204</v>
+        <v>1299.362528264337</v>
       </c>
       <c r="N29" t="n">
-        <v>1187.620939292658</v>
+        <v>1366.754313176625</v>
       </c>
       <c r="O29" t="n">
-        <v>1613.907609569696</v>
+        <v>1623.861997601973</v>
       </c>
       <c r="P29" t="n">
-        <v>1664.844551768585</v>
+        <v>1623.861997601973</v>
       </c>
       <c r="Q29" t="n">
-        <v>1700.645757933627</v>
+        <v>1668.484054450839</v>
       </c>
       <c r="R29" t="n">
         <v>1700.645757933627</v>
@@ -6500,13 +6500,13 @@
         <v>1584.376608874455</v>
       </c>
       <c r="W29" t="n">
-        <v>1455.067489812003</v>
+        <v>1455.067489812004</v>
       </c>
       <c r="X29" t="n">
-        <v>1305.061267758586</v>
+        <v>1305.061267758587</v>
       </c>
       <c r="Y29" t="n">
-        <v>1138.381471990436</v>
+        <v>1138.381471990437</v>
       </c>
     </row>
     <row r="30">
@@ -6546,37 +6546,37 @@
         <v>34.44740769915455</v>
       </c>
       <c r="L30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="M30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="N30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="O30" t="n">
-        <v>34.44740769915455</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="P30" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="Q30" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="R30" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="S30" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="T30" t="n">
-        <v>81.66668593414828</v>
+        <v>81.66668593414819</v>
       </c>
       <c r="U30" t="n">
-        <v>76.91780024377381</v>
+        <v>76.91780024377375</v>
       </c>
       <c r="V30" t="n">
-        <v>65.22522821969365</v>
+        <v>65.22522821969362</v>
       </c>
       <c r="W30" t="n">
         <v>34.44740769915455</v>
@@ -6619,46 +6619,46 @@
         <v>34.44740769915455</v>
       </c>
       <c r="J31" t="n">
-        <v>94.16778609438138</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K31" t="n">
-        <v>94.16778609438138</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="L31" t="n">
-        <v>207.8621709343248</v>
+        <v>83.10115847699966</v>
       </c>
       <c r="M31" t="n">
-        <v>207.8621709343248</v>
+        <v>83.10115847699966</v>
       </c>
       <c r="N31" t="n">
-        <v>207.8621709343248</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="O31" t="n">
-        <v>207.8621709343248</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="P31" t="n">
-        <v>207.8621709343248</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="Q31" t="n">
-        <v>207.8621709343248</v>
+        <v>155.8360083578989</v>
       </c>
       <c r="R31" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="S31" t="n">
-        <v>207.8621709343248</v>
+        <v>207.8621709343247</v>
       </c>
       <c r="T31" t="n">
-        <v>201.9010500538238</v>
+        <v>201.9010500538237</v>
       </c>
       <c r="U31" t="n">
-        <v>136.1600082170318</v>
+        <v>136.1600082170317</v>
       </c>
       <c r="V31" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W31" t="n">
-        <v>38.97742238950935</v>
+        <v>38.97742238950932</v>
       </c>
       <c r="X31" t="n">
         <v>34.44740769915455</v>
@@ -6677,10 +6677,10 @@
         <v>975.2411681339775</v>
       </c>
       <c r="C32" t="n">
-        <v>829.7381874012284</v>
+        <v>829.7381874012286</v>
       </c>
       <c r="D32" t="n">
-        <v>694.9320250021406</v>
+        <v>694.9320250021407</v>
       </c>
       <c r="E32" t="n">
         <v>532.603308611559</v>
@@ -6695,31 +6695,31 @@
         <v>34.44740769915455</v>
       </c>
       <c r="I32" t="n">
-        <v>34.44740769915455</v>
+        <v>61.40123032063605</v>
       </c>
       <c r="J32" t="n">
-        <v>110.136276376085</v>
+        <v>304.4957480179195</v>
       </c>
       <c r="K32" t="n">
-        <v>337.2614401188682</v>
+        <v>496.037560620339</v>
       </c>
       <c r="L32" t="n">
-        <v>584.1085066266201</v>
+        <v>496.037560620339</v>
       </c>
       <c r="M32" t="n">
-        <v>906.102140234536</v>
+        <v>922.3242308973767</v>
       </c>
       <c r="N32" t="n">
-        <v>1332.388810511574</v>
+        <v>922.3242308973767</v>
       </c>
       <c r="O32" t="n">
-        <v>1394.894918132566</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="P32" t="n">
-        <v>1445.831860331455</v>
+        <v>1348.610901174414</v>
       </c>
       <c r="Q32" t="n">
-        <v>1700.645757933627</v>
+        <v>1603.424798776587</v>
       </c>
       <c r="R32" t="n">
         <v>1700.645757933627</v>
@@ -6786,34 +6786,34 @@
         <v>34.44740769915455</v>
       </c>
       <c r="M33" t="n">
-        <v>81.66668593414819</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="N33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="O33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="P33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="R33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="S33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="T33" t="n">
-        <v>81.66668593414819</v>
+        <v>81.66668593414828</v>
       </c>
       <c r="U33" t="n">
-        <v>76.91780024377375</v>
+        <v>76.91780024377381</v>
       </c>
       <c r="V33" t="n">
-        <v>65.22522821969362</v>
+        <v>65.22522821969365</v>
       </c>
       <c r="W33" t="n">
         <v>34.44740769915455</v>
@@ -6847,55 +6847,55 @@
         <v>34.44740769915455</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33882579993781</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="H34" t="n">
-        <v>87.33882579993781</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="I34" t="n">
-        <v>122.9465851015692</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="J34" t="n">
-        <v>122.9465851015692</v>
+        <v>34.44740769915455</v>
       </c>
       <c r="K34" t="n">
-        <v>122.9465851015692</v>
+        <v>99.09461837230756</v>
       </c>
       <c r="L34" t="n">
-        <v>122.9465851015692</v>
+        <v>99.09461837230756</v>
       </c>
       <c r="M34" t="n">
-        <v>122.9465851015692</v>
+        <v>99.09461837230756</v>
       </c>
       <c r="N34" t="n">
-        <v>122.9465851015692</v>
+        <v>99.09461837230756</v>
       </c>
       <c r="O34" t="n">
-        <v>122.9465851015692</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="P34" t="n">
-        <v>122.9465851015692</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="Q34" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="R34" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="S34" t="n">
-        <v>207.8621709343247</v>
+        <v>207.8621709343248</v>
       </c>
       <c r="T34" t="n">
-        <v>201.9010500538237</v>
+        <v>201.9010500538238</v>
       </c>
       <c r="U34" t="n">
-        <v>136.1600082170317</v>
+        <v>136.1600082170318</v>
       </c>
       <c r="V34" t="n">
         <v>104.9350562188074</v>
       </c>
       <c r="W34" t="n">
-        <v>38.97742238950932</v>
+        <v>38.97742238950935</v>
       </c>
       <c r="X34" t="n">
         <v>34.44740769915455</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>827.5379026594856</v>
+        <v>827.5379026594846</v>
       </c>
       <c r="C35" t="n">
-        <v>705.6867520190572</v>
+        <v>705.6867520190565</v>
       </c>
       <c r="D35" t="n">
-        <v>594.5324197122899</v>
+        <v>594.5324197122893</v>
       </c>
       <c r="E35" t="n">
-        <v>455.8555334140289</v>
+        <v>455.8555334140283</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244041</v>
       </c>
       <c r="G35" t="n">
         <v>120.0263557085881</v>
@@ -6932,34 +6932,34 @@
         <v>28.65512277858621</v>
       </c>
       <c r="I35" t="n">
-        <v>78.79010407355125</v>
+        <v>78.79010407355126</v>
       </c>
       <c r="J35" t="n">
-        <v>345.0657804443182</v>
+        <v>177.6601314239652</v>
       </c>
       <c r="K35" t="n">
-        <v>699.6729248293226</v>
+        <v>177.6601314239652</v>
       </c>
       <c r="L35" t="n">
-        <v>775.2292390427422</v>
+        <v>253.2164456373847</v>
       </c>
       <c r="M35" t="n">
-        <v>775.2292390427422</v>
+        <v>607.823590022389</v>
       </c>
       <c r="N35" t="n">
-        <v>901.4773540539971</v>
+        <v>886.9159724946164</v>
       </c>
       <c r="O35" t="n">
-        <v>987.1646203484727</v>
+        <v>1241.523116879621</v>
       </c>
       <c r="P35" t="n">
-        <v>1341.771764733477</v>
+        <v>1241.523116879621</v>
       </c>
       <c r="Q35" t="n">
-        <v>1409.574980255827</v>
+        <v>1309.326332401971</v>
       </c>
       <c r="R35" t="n">
-        <v>1409.574980255827</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S35" t="n">
         <v>1409.574980255827</v>
@@ -6968,19 +6968,19 @@
         <v>1432.756138929311</v>
       </c>
       <c r="U35" t="n">
-        <v>1426.017544074267</v>
+        <v>1426.017544074266</v>
       </c>
       <c r="V35" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W35" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X35" t="n">
         <v>1110.054342099452</v>
       </c>
       <c r="Y35" t="n">
-        <v>967.0263764236239</v>
+        <v>967.0263764236231</v>
       </c>
     </row>
     <row r="36">
@@ -7038,19 +7038,19 @@
         <v>28.65512277858621</v>
       </c>
       <c r="R36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="T36" t="n">
-        <v>28.65512277858621</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="U36" t="n">
-        <v>35.7811132068046</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="V36" t="n">
-        <v>35.7811132068046</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="W36" t="n">
         <v>28.65512277858621</v>
@@ -7096,40 +7096,40 @@
         <v>28.65512277858621</v>
       </c>
       <c r="K37" t="n">
-        <v>120.6232601659386</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="M37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="N37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="O37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="P37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="R37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="T37" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="U37" t="n">
-        <v>78.53404842146722</v>
+        <v>78.53404842146716</v>
       </c>
       <c r="V37" t="n">
-        <v>70.96092651556359</v>
+        <v>70.96092651556356</v>
       </c>
       <c r="W37" t="n">
         <v>28.65512277858621</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>827.5379026594859</v>
+        <v>827.5379026594853</v>
       </c>
       <c r="C38" t="n">
-        <v>705.6867520190574</v>
+        <v>705.6867520190569</v>
       </c>
       <c r="D38" t="n">
-        <v>594.5324197122901</v>
+        <v>594.5324197122898</v>
       </c>
       <c r="E38" t="n">
-        <v>455.8555334140291</v>
+        <v>455.8555334140289</v>
       </c>
       <c r="F38" t="n">
-        <v>291.9809949244048</v>
+        <v>291.9809949244047</v>
       </c>
       <c r="G38" t="n">
-        <v>120.0263557085881</v>
+        <v>120.026355708588</v>
       </c>
       <c r="H38" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I38" t="n">
-        <v>78.79010407355128</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="J38" t="n">
-        <v>177.6601314239652</v>
+        <v>78.79010407355135</v>
       </c>
       <c r="K38" t="n">
-        <v>255.7872423313119</v>
+        <v>156.9172149808982</v>
       </c>
       <c r="L38" t="n">
-        <v>331.3435565447315</v>
+        <v>232.4735291943178</v>
       </c>
       <c r="M38" t="n">
-        <v>419.7904777980468</v>
+        <v>320.9204504476331</v>
       </c>
       <c r="N38" t="n">
-        <v>701.1430264410692</v>
+        <v>675.5275948326375</v>
       </c>
       <c r="O38" t="n">
-        <v>786.8302927355447</v>
+        <v>761.2148611271131</v>
       </c>
       <c r="P38" t="n">
-        <v>1054.5124347998</v>
+        <v>1031.331276126315</v>
       </c>
       <c r="Q38" t="n">
-        <v>1332.507491075456</v>
+        <v>1309.326332401971</v>
       </c>
       <c r="R38" t="n">
-        <v>1387.850353231727</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S38" t="n">
-        <v>1432.756138929312</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T38" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U38" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074267</v>
       </c>
       <c r="V38" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W38" t="n">
         <v>1236.408734060549</v>
       </c>
       <c r="X38" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y38" t="n">
-        <v>967.0263764236245</v>
+        <v>967.0263764236238</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L39" t="n">
-        <v>35.78111320680463</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M39" t="n">
-        <v>35.78111320680463</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N39" t="n">
-        <v>35.78111320680463</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="P39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="R39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="S39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="T39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="U39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="V39" t="n">
-        <v>35.78111320680463</v>
+        <v>35.78111320680448</v>
       </c>
       <c r="W39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y39" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H40" t="n">
-        <v>28.65512277858624</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="I40" t="n">
-        <v>28.65512277858624</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="J40" t="n">
-        <v>28.65512277858624</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="K40" t="n">
-        <v>28.65512277858624</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="L40" t="n">
-        <v>28.65512277858624</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="M40" t="n">
-        <v>28.65512277858624</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="N40" t="n">
-        <v>28.65512277858624</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="O40" t="n">
-        <v>120.6232601659386</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="P40" t="n">
-        <v>120.6232601659386</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.6232601659386</v>
+        <v>45.41593891602885</v>
       </c>
       <c r="R40" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659382</v>
       </c>
       <c r="S40" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659382</v>
       </c>
       <c r="T40" t="n">
-        <v>120.6232601659386</v>
+        <v>120.6232601659382</v>
       </c>
       <c r="U40" t="n">
-        <v>78.53404842146725</v>
+        <v>78.53404842146699</v>
       </c>
       <c r="V40" t="n">
-        <v>70.96092651556361</v>
+        <v>70.96092651556347</v>
       </c>
       <c r="W40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>827.5379026594856</v>
+        <v>827.5379026594844</v>
       </c>
       <c r="C41" t="n">
-        <v>705.6867520190569</v>
+        <v>705.686752019056</v>
       </c>
       <c r="D41" t="n">
-        <v>594.5324197122898</v>
+        <v>594.5324197122889</v>
       </c>
       <c r="E41" t="n">
-        <v>455.8555334140287</v>
+        <v>455.8555334140279</v>
       </c>
       <c r="F41" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244036</v>
       </c>
       <c r="G41" t="n">
-        <v>120.0263557085882</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H41" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I41" t="n">
-        <v>28.65512277858624</v>
+        <v>78.79010407355126</v>
       </c>
       <c r="J41" t="n">
-        <v>127.5251501290001</v>
+        <v>345.0657804443182</v>
       </c>
       <c r="K41" t="n">
-        <v>205.6522610363467</v>
+        <v>423.192891351665</v>
       </c>
       <c r="L41" t="n">
-        <v>281.2085752497662</v>
+        <v>423.192891351665</v>
       </c>
       <c r="M41" t="n">
-        <v>635.8157196347709</v>
+        <v>750.0923296215017</v>
       </c>
       <c r="N41" t="n">
-        <v>726.3886632205425</v>
+        <v>1104.699474006506</v>
       </c>
       <c r="O41" t="n">
-        <v>1012.045213524726</v>
+        <v>1176.463861205368</v>
       </c>
       <c r="P41" t="n">
-        <v>1286.428902577207</v>
+        <v>1176.463861205368</v>
       </c>
       <c r="Q41" t="n">
-        <v>1354.232118099557</v>
+        <v>1244.267076727718</v>
       </c>
       <c r="R41" t="n">
-        <v>1409.574980255828</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S41" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T41" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U41" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074266</v>
       </c>
       <c r="V41" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W41" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X41" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099451</v>
       </c>
       <c r="Y41" t="n">
-        <v>967.0263764236242</v>
+        <v>967.0263764236229</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M42" t="n">
-        <v>28.65512277858624</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="N42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="O42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="P42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="R42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="S42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="T42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="U42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="V42" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="W42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y42" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G43" t="n">
-        <v>45.41593891602966</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H43" t="n">
-        <v>45.41593891602966</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="J43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="K43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="L43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="M43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="N43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="O43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="P43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="Q43" t="n">
-        <v>45.41593891602966</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="R43" t="n">
-        <v>120.6232601659389</v>
+        <v>96.89821147477348</v>
       </c>
       <c r="S43" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="T43" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="U43" t="n">
-        <v>78.53404842146742</v>
+        <v>78.53404842146716</v>
       </c>
       <c r="V43" t="n">
-        <v>70.9609265155637</v>
+        <v>70.96092651556356</v>
       </c>
       <c r="W43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>827.5379026594857</v>
+        <v>827.5379026594846</v>
       </c>
       <c r="C44" t="n">
-        <v>705.6867520190572</v>
+        <v>705.6867520190563</v>
       </c>
       <c r="D44" t="n">
-        <v>594.53241971229</v>
+        <v>594.5324197122893</v>
       </c>
       <c r="E44" t="n">
-        <v>455.8555334140289</v>
+        <v>455.8555334140285</v>
       </c>
       <c r="F44" t="n">
-        <v>291.9809949244045</v>
+        <v>291.9809949244042</v>
       </c>
       <c r="G44" t="n">
-        <v>120.0263557085882</v>
+        <v>120.0263557085881</v>
       </c>
       <c r="H44" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I44" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J44" t="n">
-        <v>28.65512277858624</v>
+        <v>294.9307991493532</v>
       </c>
       <c r="K44" t="n">
-        <v>106.7822336859329</v>
+        <v>373.0579100566999</v>
       </c>
       <c r="L44" t="n">
-        <v>182.3385478993524</v>
+        <v>448.6142242701195</v>
       </c>
       <c r="M44" t="n">
-        <v>513.5335893935126</v>
+        <v>537.0611455234347</v>
       </c>
       <c r="N44" t="n">
-        <v>868.1407337785172</v>
+        <v>627.6340891092063</v>
       </c>
       <c r="O44" t="n">
-        <v>1222.747878163522</v>
+        <v>982.2412334942107</v>
       </c>
       <c r="P44" t="n">
-        <v>1296.865979035894</v>
+        <v>1280.371316770694</v>
       </c>
       <c r="Q44" t="n">
-        <v>1364.669194558244</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="R44" t="n">
-        <v>1364.669194558244</v>
+        <v>1364.669194558242</v>
       </c>
       <c r="S44" t="n">
-        <v>1409.574980255828</v>
+        <v>1409.574980255827</v>
       </c>
       <c r="T44" t="n">
-        <v>1432.756138929312</v>
+        <v>1432.756138929311</v>
       </c>
       <c r="U44" t="n">
-        <v>1426.017544074268</v>
+        <v>1426.017544074266</v>
       </c>
       <c r="V44" t="n">
-        <v>1342.06602303068</v>
+        <v>1342.066023030679</v>
       </c>
       <c r="W44" t="n">
-        <v>1236.408734060549</v>
+        <v>1236.408734060548</v>
       </c>
       <c r="X44" t="n">
-        <v>1110.054342099453</v>
+        <v>1110.054342099452</v>
       </c>
       <c r="Y44" t="n">
-        <v>967.0263764236244</v>
+        <v>967.0263764236232</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="P45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="R45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="S45" t="n">
-        <v>28.65512277858624</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="T45" t="n">
-        <v>28.65512277858624</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="U45" t="n">
-        <v>28.65512277858624</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="V45" t="n">
-        <v>35.78111320680471</v>
+        <v>35.78111320680457</v>
       </c>
       <c r="W45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="C46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="D46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="E46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="F46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="G46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="H46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="I46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="J46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="K46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="L46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="M46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="N46" t="n">
-        <v>120.6232601659389</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="O46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="P46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="R46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="S46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="T46" t="n">
-        <v>120.6232601659389</v>
+        <v>120.6232601659385</v>
       </c>
       <c r="U46" t="n">
-        <v>78.53404842146742</v>
+        <v>78.53404842146716</v>
       </c>
       <c r="V46" t="n">
-        <v>70.9609265155637</v>
+        <v>70.96092651556356</v>
       </c>
       <c r="W46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="X46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.65512277858624</v>
+        <v>28.65512277858621</v>
       </c>
     </row>
   </sheetData>
@@ -8699,19 +8699,19 @@
         <v>155.2999281386852</v>
       </c>
       <c r="N11" t="n">
-        <v>124.0829588125913</v>
+        <v>11.43655551079127</v>
       </c>
       <c r="O11" t="n">
-        <v>16.37158307775695</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>28.0576087566489</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q11" t="n">
-        <v>34.43628082737847</v>
+        <v>113.3750062522773</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8857,16 +8857,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>98.3481715102201</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>74.85540962609694</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>168.320743330499</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>155.2999281386852</v>
       </c>
       <c r="N14" t="n">
-        <v>197.6468981791435</v>
+        <v>11.43655551079127</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>176.152156149761</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>377.6883987243451</v>
+        <v>264.5073078078857</v>
       </c>
       <c r="M26" t="n">
-        <v>24.88644555742395</v>
+        <v>155.2999281386852</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>362.5200862270197</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>165.0672973044524</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>105.2328625520064</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10030,16 +10030,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M28" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -10048,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10112,25 +10112,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1517623500595</v>
       </c>
       <c r="M29" t="n">
-        <v>110.4631780450106</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>362.5200862270196</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>367.4551137939855</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>84.19302733439818</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.7916225242057</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10267,19 +10267,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>155.5273306818502</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>173.9183954635555</v>
+        <v>137.9756165338953</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>425.3913204245281</v>
       </c>
       <c r="N32" t="n">
-        <v>362.5200862270196</v>
+        <v>153.1524308331736</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>367.4551137939856</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10510,13 +10510,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>98.3481715102201</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -10525,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,25 +10583,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>279.2727610885431</v>
+        <v>1.325169602385238</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>110.8461959071922</v>
+        <v>268.8487102340294</v>
       </c>
       <c r="N35" t="n">
-        <v>36.03552669240734</v>
+        <v>190.4236756428846</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>271.6362404954837</v>
       </c>
       <c r="P35" t="n">
-        <v>283.3222661743757</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10741,7 +10741,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -10756,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>119.3986725310615</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,13 +10832,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>266.7012129285177</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>195.5192335271547</v>
+        <v>197.9780950776054</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>3.879399867189647</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10984,22 +10984,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>108.8738430064008</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11066,22 +11066,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>268.8487102340298</v>
+        <v>240.8611282995166</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>266.7012129285179</v>
       </c>
       <c r="O41" t="n">
-        <v>201.9891757673814</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11218,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7396511863337</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>245.200121455399</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>266.7012129285182</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>271.6362404954842</v>
+        <v>271.6362404954837</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>226.2747297011222</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.38307512698316</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11461,13 +11461,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N46" t="n">
-        <v>98.3481715102201</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168.6144048339938</v>
+        <v>96.21084332688957</v>
       </c>
       <c r="C11" t="n">
-        <v>87.38039796606346</v>
+        <v>151.1534549415209</v>
       </c>
       <c r="D11" t="n">
-        <v>140.5636047911962</v>
+        <v>140.5636047911963</v>
       </c>
       <c r="E11" t="n">
-        <v>167.810933242775</v>
+        <v>167.8109332427751</v>
       </c>
       <c r="F11" t="n">
-        <v>120.3530474051204</v>
+        <v>192.7566089122247</v>
       </c>
       <c r="G11" t="n">
-        <v>128.3523471240505</v>
+        <v>174.1748763696877</v>
       </c>
       <c r="H11" t="n">
-        <v>120.9783364081985</v>
+        <v>120.9783364081986</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.105504016099172</v>
+        <v>7.105504016099229</v>
       </c>
       <c r="U11" t="n">
-        <v>37.19202471399026</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>113.6328216406482</v>
+        <v>41.2292601335439</v>
       </c>
       <c r="W11" t="n">
         <v>135.1215318879263</v>
       </c>
       <c r="X11" t="n">
-        <v>155.6116638489823</v>
+        <v>83.20810234187803</v>
       </c>
       <c r="Y11" t="n">
-        <v>99.71494031946258</v>
+        <v>172.1185018265669</v>
       </c>
     </row>
     <row r="12">
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>111.9468518746356</v>
+        <v>111.9468518746357</v>
       </c>
       <c r="C14" t="n">
-        <v>151.1534549415208</v>
+        <v>78.74989343441655</v>
       </c>
       <c r="D14" t="n">
-        <v>140.5636047911962</v>
+        <v>140.5636047911963</v>
       </c>
       <c r="E14" t="n">
-        <v>167.810933242775</v>
+        <v>167.8109332427751</v>
       </c>
       <c r="F14" t="n">
         <v>192.7566089122247</v>
@@ -23510,7 +23510,7 @@
         <v>200.7559086311548</v>
       </c>
       <c r="H14" t="n">
-        <v>48.57477490109426</v>
+        <v>120.9783364081986</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.19202471399027</v>
+        <v>37.19202471399033</v>
       </c>
       <c r="V14" t="n">
-        <v>113.6328216406482</v>
+        <v>41.2292601335439</v>
       </c>
       <c r="W14" t="n">
-        <v>62.71797038082201</v>
+        <v>135.1215318879263</v>
       </c>
       <c r="X14" t="n">
         <v>83.20810234187803</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.1185018265668</v>
+        <v>172.1185018265669</v>
       </c>
     </row>
     <row r="15">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586484.3326129371</v>
+        <v>586484.3326129372</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586484.3326129371</v>
+        <v>586484.3326129373</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>743566.19123549</v>
+        <v>743566.1912354901</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>743566.19123549</v>
+        <v>743566.1912354901</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>702212.8216939451</v>
+        <v>702212.8216939449</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>778312.5217811863</v>
+      </c>
+      <c r="C2" t="n">
         <v>778312.5217811862</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>778312.5217811865</v>
       </c>
-      <c r="D2" t="n">
-        <v>778312.5217811862</v>
-      </c>
       <c r="E2" t="n">
-        <v>667888.2069400979</v>
+        <v>667888.2069400975</v>
       </c>
       <c r="F2" t="n">
-        <v>667888.2069400979</v>
+        <v>667888.2069400977</v>
       </c>
       <c r="G2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710687</v>
       </c>
       <c r="H2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710686</v>
       </c>
       <c r="I2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="J2" t="n">
-        <v>779989.6813710681</v>
+        <v>779989.6813710677</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710678</v>
+        <v>779989.6813710675</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710678</v>
+        <v>779989.6813710677</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710689</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>163718.1536871232</v>
+        <v>163718.1536871231</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>106979.8107928507</v>
       </c>
       <c r="M3" t="n">
-        <v>18732.24943311798</v>
+        <v>18732.24943311802</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>70000.14188361797</v>
+        <v>70000.14188361792</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26439,10 +26439,10 @@
         <v>431842.1671902813</v>
       </c>
       <c r="J4" t="n">
-        <v>440899.9009590467</v>
+        <v>440899.9009590468</v>
       </c>
       <c r="K4" t="n">
-        <v>440899.9009590467</v>
+        <v>440899.9009590468</v>
       </c>
       <c r="L4" t="n">
         <v>440899.9009590467</v>
@@ -26451,7 +26451,7 @@
         <v>436970.6596854209</v>
       </c>
       <c r="N4" t="n">
-        <v>436970.6596854209</v>
+        <v>436970.659685421</v>
       </c>
       <c r="O4" t="n">
         <v>436970.6596854209</v>
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24720.58373795487</v>
+        <v>24720.58373795486</v>
       </c>
       <c r="F5" t="n">
-        <v>24720.58373795487</v>
+        <v>24720.58373795486</v>
       </c>
       <c r="G5" t="n">
         <v>35962.69087988507</v>
@@ -26503,13 +26503,13 @@
         <v>44662.19497416889</v>
       </c>
       <c r="N5" t="n">
-        <v>44662.1949741689</v>
+        <v>44662.19497416889</v>
       </c>
       <c r="O5" t="n">
-        <v>44662.1949741689</v>
+        <v>44662.19497416889</v>
       </c>
       <c r="P5" t="n">
-        <v>44662.1949741689</v>
+        <v>44662.19497416889</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277068.961849455</v>
+        <v>277064.548271587</v>
       </c>
       <c r="C6" t="n">
-        <v>277068.9618494553</v>
+        <v>277064.5482715869</v>
       </c>
       <c r="D6" t="n">
-        <v>277068.961849455</v>
+        <v>277064.5482715871</v>
       </c>
       <c r="E6" t="n">
-        <v>-1843.251801204191</v>
+        <v>-2138.255681285978</v>
       </c>
       <c r="F6" t="n">
-        <v>276483.212865675</v>
+        <v>276188.2089855934</v>
       </c>
       <c r="G6" t="n">
-        <v>205205.0125080517</v>
+        <v>205205.0125080516</v>
       </c>
       <c r="H6" t="n">
-        <v>312184.8233009024</v>
+        <v>312184.8233009022</v>
       </c>
       <c r="I6" t="n">
         <v>312184.8233009023</v>
       </c>
       <c r="J6" t="n">
-        <v>128275.7970580884</v>
+        <v>128275.7970580879</v>
       </c>
       <c r="K6" t="n">
-        <v>291993.9507452113</v>
+        <v>291993.9507452109</v>
       </c>
       <c r="L6" t="n">
-        <v>185014.1399523606</v>
+        <v>185014.1399523604</v>
       </c>
       <c r="M6" t="n">
-        <v>279624.5772783613</v>
+        <v>279624.5772783611</v>
       </c>
       <c r="N6" t="n">
         <v>298356.8267114793</v>
       </c>
       <c r="O6" t="n">
-        <v>228356.6848278614</v>
+        <v>228356.684827861</v>
       </c>
       <c r="P6" t="n">
-        <v>298356.8267114795</v>
+        <v>298356.8267114791</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>244.6402526369834</v>
       </c>
       <c r="N2" t="n">
+        <v>244.6402526369835</v>
+      </c>
+      <c r="O2" t="n">
         <v>244.6402526369834</v>
       </c>
-      <c r="O2" t="n">
-        <v>244.6402526369833</v>
-      </c>
       <c r="P2" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="F4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="G4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="H4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="I4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="J4" t="n">
         <v>430.5925962394319</v>
@@ -26820,16 +26820,16 @@
         <v>430.5925962394319</v>
       </c>
       <c r="M4" t="n">
-        <v>358.1890347323277</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="N4" t="n">
-        <v>358.189034732328</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="O4" t="n">
-        <v>358.189034732328</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="P4" t="n">
-        <v>358.189034732328</v>
+        <v>358.1890347323276</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>87.50017735452255</v>
+        <v>87.50017735452249</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>133.7247634910634</v>
       </c>
       <c r="M2" t="n">
-        <v>23.41531179139747</v>
+        <v>23.41531179139753</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452246</v>
+        <v>87.50017735452241</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>358.1890347323277</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>87.50017735452255</v>
+        <v>87.50017735452249</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>193.998857389544</v>
       </c>
       <c r="J11" t="n">
-        <v>144.7715381416158</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="K11" t="n">
-        <v>189.4034505767859</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="L11" t="n">
         <v>214.1194368294867</v>
@@ -28123,19 +28123,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>29.0694720205823</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="O11" t="n">
+        <v>183.4496313153427</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>62.7771498974837</v>
+      </c>
+      <c r="R11" t="n">
         <v>214.1194368294867</v>
-      </c>
-      <c r="P11" t="n">
-        <v>214.1194368294867</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>214.1194368294867</v>
-      </c>
-      <c r="R11" t="n">
-        <v>123.0219517980703</v>
       </c>
       <c r="S11" t="n">
         <v>199.280873144474</v>
@@ -28184,7 +28184,7 @@
         <v>137.114842254054</v>
       </c>
       <c r="H12" t="n">
-        <v>110.026926034905</v>
+        <v>179.4724902640055</v>
       </c>
       <c r="I12" t="n">
         <v>91.64914299614301</v>
@@ -28196,22 +28196,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L12" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M12" t="n">
-        <v>153.6385915634986</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N12" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O12" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P12" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R12" t="n">
         <v>131.4816003936965</v>
@@ -28251,7 +28251,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>180.8412501746644</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -28263,34 +28263,34 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H13" t="n">
-        <v>160.5226664330617</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="I13" t="n">
-        <v>149.6851312728186</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="J13" t="n">
-        <v>79.80504541274972</v>
+        <v>185.8448482425774</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1432126934379</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L13" t="n">
-        <v>178.7856893830503</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M13" t="n">
-        <v>181.2774045135051</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O13" t="n">
-        <v>111.3587261364775</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.990874416955</v>
+        <v>114.5411443216187</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.10866344484917</v>
+        <v>135.4516218226006</v>
       </c>
       <c r="R13" t="n">
         <v>168.6732614754589</v>
@@ -28345,37 +28345,37 @@
         <v>214.1194368294867</v>
       </c>
       <c r="I14" t="n">
-        <v>193.998857389544</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="J14" t="n">
-        <v>182.5991567572501</v>
+        <v>142.3196900226232</v>
       </c>
       <c r="K14" t="n">
+        <v>165.7239789931988</v>
+      </c>
+      <c r="L14" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>214.1194368294867</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>158.0874584001395</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="P14" t="n">
-        <v>214.1194368294867</v>
+        <v>189.7039593004331</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.1194368294867</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>123.0219517980703</v>
       </c>
       <c r="S14" t="n">
-        <v>214.1194368294867</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T14" t="n">
         <v>214.1194368294867</v>
@@ -28406,7 +28406,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>214.1194368294867</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -28433,22 +28433,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L15" t="n">
-        <v>108.5910134111012</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M15" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N15" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O15" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P15" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.7916225242057</v>
+        <v>180.2371867533063</v>
       </c>
       <c r="R15" t="n">
         <v>131.4816003936965</v>
@@ -28469,7 +28469,7 @@
         <v>214.1194368294867</v>
       </c>
       <c r="X15" t="n">
-        <v>214.1194368294867</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -28485,40 +28485,40 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>214.1194368294867</v>
       </c>
       <c r="D16" t="n">
+        <v>148.6154730182124</v>
+      </c>
+      <c r="E16" t="n">
         <v>214.1194368294867</v>
-      </c>
-      <c r="E16" t="n">
-        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>214.1194368294867</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H16" t="n">
         <v>160.5226664330617</v>
       </c>
       <c r="I16" t="n">
-        <v>149.6851312728186</v>
+        <v>185.3838944685873</v>
       </c>
       <c r="J16" t="n">
-        <v>151.8740052005666</v>
+        <v>185.8448482425774</v>
       </c>
       <c r="K16" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M16" t="n">
-        <v>181.2774045135051</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N16" t="n">
-        <v>98.3481715102201</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O16" t="n">
         <v>111.3587261364775</v>
@@ -28527,7 +28527,7 @@
         <v>114.5411443216187</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.10866344484917</v>
+        <v>135.4516218226006</v>
       </c>
       <c r="R16" t="n">
         <v>168.6732614754589</v>
@@ -28579,19 +28579,19 @@
         <v>347.8442003205501</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8442003205501</v>
+        <v>335.0977732376853</v>
       </c>
       <c r="I17" t="n">
-        <v>266.4024188966482</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J17" t="n">
         <v>144.7715381416158</v>
       </c>
       <c r="K17" t="n">
-        <v>165.7239789931988</v>
+        <v>238.1275405003032</v>
       </c>
       <c r="L17" t="n">
-        <v>240.7243048376033</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M17" t="n">
         <v>155.2999281386852</v>
@@ -28603,7 +28603,7 @@
         <v>158.0874584001395</v>
       </c>
       <c r="P17" t="n">
-        <v>169.7734840790314</v>
+        <v>242.1770455861357</v>
       </c>
       <c r="Q17" t="n">
         <v>176.152156149761</v>
@@ -28612,16 +28612,16 @@
         <v>261.141933178157</v>
       </c>
       <c r="S17" t="n">
-        <v>256.0126111441839</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T17" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="U17" t="n">
-        <v>251.311461543477</v>
+        <v>300.6976847756367</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W17" t="n">
         <v>347.8442003205501</v>
@@ -28670,22 +28670,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L18" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M18" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N18" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O18" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P18" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R18" t="n">
         <v>131.4816003936965</v>
@@ -28752,10 +28752,10 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M19" t="n">
-        <v>108.8738430064008</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N19" t="n">
-        <v>98.3481715102201</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O19" t="n">
         <v>111.3587261364775</v>
@@ -28819,16 +28819,16 @@
         <v>335.0977732376853</v>
       </c>
       <c r="I20" t="n">
-        <v>193.998857389544</v>
+        <v>243.3850806217037</v>
       </c>
       <c r="J20" t="n">
-        <v>217.17509964872</v>
+        <v>144.7715381416158</v>
       </c>
       <c r="K20" t="n">
         <v>165.7239789931988</v>
       </c>
       <c r="L20" t="n">
-        <v>168.320743330499</v>
+        <v>240.7243048376034</v>
       </c>
       <c r="M20" t="n">
         <v>155.2999281386852</v>
@@ -28837,7 +28837,7 @@
         <v>153.1524308331736</v>
       </c>
       <c r="O20" t="n">
-        <v>207.4736816322991</v>
+        <v>230.4910199072439</v>
       </c>
       <c r="P20" t="n">
         <v>169.7734840790314</v>
@@ -28849,13 +28849,13 @@
         <v>188.7383716710527</v>
       </c>
       <c r="S20" t="n">
-        <v>271.6844346515782</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T20" t="n">
-        <v>293.6285023526902</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U20" t="n">
-        <v>251.311461543477</v>
+        <v>323.7150230505814</v>
       </c>
       <c r="V20" t="n">
         <v>347.8442003205501</v>
@@ -28907,22 +28907,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L21" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M21" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N21" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O21" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P21" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R21" t="n">
         <v>131.4816003936965</v>
@@ -28989,10 +28989,10 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M22" t="n">
-        <v>108.8738430064008</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N22" t="n">
-        <v>98.3481715102201</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O22" t="n">
         <v>111.3587261364775</v>
@@ -29053,7 +29053,7 @@
         <v>347.8442003205501</v>
       </c>
       <c r="H23" t="n">
-        <v>335.0977732376853</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="I23" t="n">
         <v>193.998857389544</v>
@@ -29062,22 +29062,22 @@
         <v>144.7715381416158</v>
       </c>
       <c r="K23" t="n">
-        <v>165.7239789931988</v>
+        <v>238.1275405003032</v>
       </c>
       <c r="L23" t="n">
-        <v>168.320743330499</v>
+        <v>204.9605394797939</v>
       </c>
       <c r="M23" t="n">
-        <v>155.2999281386852</v>
+        <v>227.7034896457895</v>
       </c>
       <c r="N23" t="n">
         <v>153.1524308331736</v>
       </c>
       <c r="O23" t="n">
-        <v>158.0874584001395</v>
+        <v>230.4910199072439</v>
       </c>
       <c r="P23" t="n">
-        <v>239.2516491616062</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q23" t="n">
         <v>176.152156149761</v>
@@ -29086,16 +29086,16 @@
         <v>188.7383716710527</v>
       </c>
       <c r="S23" t="n">
-        <v>271.6844346515782</v>
+        <v>199.280873144474</v>
       </c>
       <c r="T23" t="n">
-        <v>293.6285023526902</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="U23" t="n">
-        <v>323.7150230505813</v>
+        <v>251.311461543477</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>347.8442003205501</v>
       </c>
       <c r="W23" t="n">
         <v>347.8442003205501</v>
@@ -29144,22 +29144,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L24" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M24" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N24" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O24" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P24" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R24" t="n">
         <v>131.4816003936965</v>
@@ -29226,10 +29226,10 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M25" t="n">
-        <v>108.8738430064008</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N25" t="n">
-        <v>98.3481715102201</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O25" t="n">
         <v>111.3587261364775</v>
@@ -29293,25 +29293,25 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I26" t="n">
-        <v>221.2249408455859</v>
+        <v>193.998857389544</v>
       </c>
       <c r="J26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>165.7239789931988</v>
       </c>
       <c r="L26" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="M26" t="n">
-        <v>130.4134825812612</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="O26" t="n">
-        <v>221.2249408455859</v>
+        <v>119.3324707901194</v>
       </c>
       <c r="P26" t="n">
         <v>221.2249408455859</v>
@@ -29320,7 +29320,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="R26" t="n">
-        <v>188.7383716710527</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S26" t="n">
         <v>221.2249408455859</v>
@@ -29375,34 +29375,34 @@
         <v>91.64914299614301</v>
       </c>
       <c r="J27" t="n">
-        <v>105.2328625520064</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>100.9154559462058</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M27" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N27" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O27" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P27" t="n">
-        <v>90.30752936669641</v>
+        <v>138.0037700081043</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R27" t="n">
         <v>131.4816003936965</v>
       </c>
       <c r="S27" t="n">
-        <v>215.1318756036744</v>
+        <v>167.4356349622666</v>
       </c>
       <c r="T27" t="n">
         <v>199.2430083373</v>
@@ -29445,34 +29445,34 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7992659963099</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="H28" t="n">
+        <v>160.5226664330617</v>
+      </c>
+      <c r="I28" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="I28" t="n">
-        <v>149.6851312728186</v>
-      </c>
       <c r="J28" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274973</v>
       </c>
       <c r="K28" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L28" t="n">
-        <v>106.3821278759461</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N28" t="n">
-        <v>212.8123246079689</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O28" t="n">
         <v>111.3587261364775</v>
       </c>
       <c r="P28" t="n">
-        <v>114.5411443216187</v>
+        <v>29.73552409580735</v>
       </c>
       <c r="Q28" t="n">
         <v>135.4516218226006</v>
@@ -29536,28 +29536,28 @@
         <v>221.2249408455859</v>
       </c>
       <c r="K29" t="n">
-        <v>201.4483685341653</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="M29" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="O29" t="n">
+        <v>36.99200888017008</v>
+      </c>
+      <c r="P29" t="n">
+        <v>169.7734840790314</v>
+      </c>
+      <c r="Q29" t="n">
         <v>221.2249408455859</v>
       </c>
-      <c r="P29" t="n">
+      <c r="R29" t="n">
         <v>221.2249408455859</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>188.7383716710527</v>
       </c>
       <c r="S29" t="n">
         <v>221.2249408455859</v>
@@ -29618,22 +29618,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L30" t="n">
-        <v>88.90283864918116</v>
+        <v>136.5990792905889</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N30" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O30" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P30" t="n">
-        <v>138.0037700081042</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R30" t="n">
         <v>131.4816003936965</v>
@@ -29691,19 +29691,19 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J31" t="n">
-        <v>173.7649012761062</v>
+        <v>79.80504541274973</v>
       </c>
       <c r="K31" t="n">
         <v>106.7396511863337</v>
       </c>
       <c r="L31" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>98.3481715102201</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>111.3587261364775</v>
@@ -29715,7 +29715,7 @@
         <v>135.4516218226006</v>
       </c>
       <c r="R31" t="n">
-        <v>168.6732614754589</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S31" t="n">
         <v>220.675556989342</v>
@@ -29767,7 +29767,7 @@
         <v>221.2249408455859</v>
       </c>
       <c r="I32" t="n">
-        <v>193.998857389544</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="J32" t="n">
         <v>221.2249408455859</v>
@@ -29779,22 +29779,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>31.03248919930318</v>
+        <v>160.501203953589</v>
       </c>
       <c r="N32" t="n">
-        <v>221.2249408455859</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="P32" t="n">
-        <v>221.2249408455859</v>
+        <v>169.7734840790314</v>
       </c>
       <c r="Q32" t="n">
         <v>221.2249408455859</v>
       </c>
       <c r="R32" t="n">
-        <v>123.0219517980703</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="S32" t="n">
         <v>221.2249408455859</v>
@@ -29855,25 +29855,25 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L33" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M33" t="n">
-        <v>131.8892679758059</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N33" t="n">
-        <v>71.86717946018484</v>
+        <v>119.5634201015927</v>
       </c>
       <c r="O33" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P33" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R33" t="n">
-        <v>131.4816003936965</v>
+        <v>85.95993058237568</v>
       </c>
       <c r="S33" t="n">
         <v>167.4356349622666</v>
@@ -29919,37 +29919,37 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>221.2249408455859</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H34" t="n">
         <v>160.5226664330617</v>
       </c>
       <c r="I34" t="n">
-        <v>185.6525649108301</v>
+        <v>149.6851312728186</v>
       </c>
       <c r="J34" t="n">
         <v>113.4412867354731</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7396511863337</v>
+        <v>172.0398639874984</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M34" t="n">
-        <v>108.8738430064008</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O34" t="n">
-        <v>111.3587261364775</v>
+        <v>221.2249408455859</v>
       </c>
       <c r="P34" t="n">
         <v>114.5411443216187</v>
       </c>
       <c r="Q34" t="n">
-        <v>221.2249408455859</v>
+        <v>70.10866344484918</v>
       </c>
       <c r="R34" t="n">
         <v>168.6732614754589</v>
@@ -30010,13 +30010,13 @@
         <v>244.6402526369834</v>
       </c>
       <c r="K35" t="n">
-        <v>244.6402526369834</v>
+        <v>164.3988093908136</v>
       </c>
       <c r="L35" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="M35" t="n">
-        <v>44.45373223149299</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N35" t="n">
         <v>244.6402526369834</v>
@@ -30025,16 +30025,16 @@
         <v>244.6402526369834</v>
       </c>
       <c r="P35" t="n">
-        <v>244.6402526369834</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>244.6402526369834</v>
       </c>
       <c r="R35" t="n">
-        <v>188.7383716710527</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S35" t="n">
-        <v>199.280873144474</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T35" t="n">
         <v>244.6402526369834</v>
@@ -30092,25 +30092,25 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L36" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M36" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N36" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O36" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P36" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R36" t="n">
-        <v>131.4816003936965</v>
+        <v>138.67957052321</v>
       </c>
       <c r="S36" t="n">
         <v>167.4356349622666</v>
@@ -30119,7 +30119,7 @@
         <v>199.2430083373</v>
       </c>
       <c r="U36" t="n">
-        <v>233.1243078085701</v>
+        <v>225.9263376790566</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -30165,22 +30165,22 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J37" t="n">
-        <v>113.4412867354731</v>
+        <v>79.80504541274973</v>
       </c>
       <c r="K37" t="n">
-        <v>199.6367596584068</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L37" t="n">
-        <v>106.3821278759461</v>
+        <v>199.2792363480191</v>
       </c>
       <c r="M37" t="n">
-        <v>108.8738430064008</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N37" t="n">
-        <v>98.3481715102201</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P37" t="n">
         <v>114.5411443216187</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="C38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="D38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="E38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="F38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="G38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="H38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="I38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="J38" t="n">
-        <v>244.6402526369834</v>
+        <v>25.37286561055436</v>
       </c>
       <c r="K38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="L38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="M38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="O38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="P38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="R38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="S38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2249408455859</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="U38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="Y38" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
     </row>
     <row r="39">
@@ -30329,22 +30329,22 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L39" t="n">
-        <v>96.10080877869468</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M39" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N39" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O39" t="n">
-        <v>84.30926652015543</v>
+        <v>95.3866365168585</v>
       </c>
       <c r="P39" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R39" t="n">
         <v>131.4816003936965</v>
@@ -30362,7 +30362,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -30396,7 +30396,7 @@
         <v>167.7992659963099</v>
       </c>
       <c r="H40" t="n">
-        <v>160.5226664330617</v>
+        <v>177.4527837436098</v>
       </c>
       <c r="I40" t="n">
         <v>149.6851312728186</v>
@@ -30408,25 +30408,25 @@
         <v>106.7396511863337</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>106.3821278759461</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>98.3481715102201</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>204.2558346085506</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>114.5411443216187</v>
       </c>
       <c r="Q40" t="n">
-        <v>135.4516218226006</v>
+        <v>70.10866344484918</v>
       </c>
       <c r="R40" t="n">
-        <v>168.6732614754589</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="S40" t="n">
         <v>220.675556989342</v>
@@ -30435,13 +30435,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="V40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="W40" t="n">
-        <v>244.6402526369834</v>
+        <v>244.6402526369835</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I41" t="n">
-        <v>193.998857389544</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="J41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L41" t="n">
-        <v>244.6402526369833</v>
+        <v>168.3207433304991</v>
       </c>
       <c r="M41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O41" t="n">
-        <v>244.6402526369833</v>
+        <v>230.5767383989902</v>
       </c>
       <c r="P41" t="n">
-        <v>125.130017374702</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="R41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="S41" t="n">
-        <v>199.280873144474</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y41" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="42">
@@ -30563,25 +30563,25 @@
         <v>105.2328625520064</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>100.9154559462058</v>
       </c>
       <c r="L42" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M42" t="n">
-        <v>84.19302733439818</v>
+        <v>91.3909974639117</v>
       </c>
       <c r="N42" t="n">
-        <v>79.06514958969845</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O42" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P42" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R42" t="n">
         <v>131.4816003936965</v>
@@ -30599,7 +30599,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -30630,31 +30630,31 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>184.7293833068588</v>
+        <v>167.7992659963099</v>
       </c>
       <c r="H43" t="n">
         <v>160.5226664330617</v>
       </c>
       <c r="I43" t="n">
-        <v>149.6851312728186</v>
+        <v>218.6175440972502</v>
       </c>
       <c r="J43" t="n">
         <v>113.4412867354731</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7396511863337</v>
       </c>
       <c r="L43" t="n">
         <v>106.3821278759461</v>
       </c>
       <c r="M43" t="n">
-        <v>108.8738430064008</v>
+        <v>108.8738430064009</v>
       </c>
       <c r="N43" t="n">
-        <v>98.3481715102201</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>111.3587261364775</v>
       </c>
       <c r="P43" t="n">
         <v>114.5411443216187</v>
@@ -30663,22 +30663,22 @@
         <v>135.4516218226006</v>
       </c>
       <c r="R43" t="n">
-        <v>244.6402526369833</v>
+        <v>168.6732614754589</v>
       </c>
       <c r="S43" t="n">
-        <v>220.675556989342</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T43" t="n">
         <v>227.1264505172819</v>
       </c>
       <c r="U43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W43" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="C44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="D44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="E44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="F44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="G44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="H44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="I44" t="n">
         <v>193.998857389544</v>
       </c>
       <c r="J44" t="n">
-        <v>144.7715381416158</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="K44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="L44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="M44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="N44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="O44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="P44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.6402526369833</v>
+        <v>48.98653699243021</v>
       </c>
       <c r="R44" t="n">
-        <v>123.3552965440696</v>
+        <v>188.7383716710527</v>
       </c>
       <c r="S44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="T44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="U44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="Y44" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
     </row>
     <row r="45">
@@ -30803,28 +30803,28 @@
         <v>100.9154559462058</v>
       </c>
       <c r="L45" t="n">
-        <v>88.90283864918116</v>
+        <v>88.90283864918119</v>
       </c>
       <c r="M45" t="n">
-        <v>84.19302733439818</v>
+        <v>84.19302733439821</v>
       </c>
       <c r="N45" t="n">
-        <v>71.86717946018484</v>
+        <v>71.86717946018487</v>
       </c>
       <c r="O45" t="n">
-        <v>88.18866638734508</v>
+        <v>88.18866638734511</v>
       </c>
       <c r="P45" t="n">
-        <v>90.30752936669641</v>
+        <v>90.30752936669644</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.7916225242057</v>
+        <v>110.7916225242058</v>
       </c>
       <c r="R45" t="n">
         <v>131.4816003936965</v>
       </c>
       <c r="S45" t="n">
-        <v>167.4356349622666</v>
+        <v>174.6336050917801</v>
       </c>
       <c r="T45" t="n">
         <v>199.2430083373</v>
@@ -30833,10 +30833,10 @@
         <v>225.9263376790566</v>
       </c>
       <c r="V45" t="n">
-        <v>239.9985572789389</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -30876,7 +30876,7 @@
         <v>149.6851312728186</v>
       </c>
       <c r="J46" t="n">
-        <v>206.3383952075464</v>
+        <v>113.4412867354731</v>
       </c>
       <c r="K46" t="n">
         <v>106.7396511863337</v>
@@ -30885,13 +30885,13 @@
         <v>106.3821278759461</v>
       </c>
       <c r="M46" t="n">
-        <v>108.8738430064008</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>98.34817151022011</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>204.2558346085505</v>
       </c>
       <c r="P46" t="n">
         <v>114.5411443216187</v>
@@ -30909,13 +30909,13 @@
         <v>227.1264505172819</v>
       </c>
       <c r="U46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="V46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="W46" t="n">
-        <v>244.6402526369833</v>
+        <v>244.6402526369834</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H11" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I11" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J11" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K11" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L11" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M11" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N11" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O11" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P11" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R11" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S11" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H12" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I12" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J12" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K12" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L12" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M12" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N12" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O12" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P12" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R12" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S12" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H13" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I13" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J13" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K13" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L13" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M13" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N13" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O13" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P13" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q13" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R13" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S13" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H14" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I14" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J14" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K14" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L14" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M14" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N14" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O14" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P14" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R14" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S14" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H15" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I15" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J15" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K15" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L15" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M15" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N15" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O15" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P15" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R15" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S15" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H16" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I16" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J16" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K16" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L16" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M16" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N16" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O16" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P16" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q16" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R16" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S16" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H17" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I17" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J17" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K17" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L17" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M17" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N17" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O17" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P17" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R17" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S17" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T17" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H18" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I18" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J18" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K18" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L18" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M18" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N18" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O18" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P18" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q18" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R18" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S18" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H19" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I19" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J19" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K19" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L19" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M19" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N19" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O19" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P19" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q19" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R19" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S19" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H20" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I20" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J20" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K20" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L20" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M20" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N20" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O20" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P20" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R20" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S20" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H21" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I21" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J21" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K21" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L21" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M21" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N21" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O21" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P21" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q21" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R21" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S21" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H22" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I22" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J22" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K22" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L22" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M22" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N22" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O22" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P22" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q22" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R22" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S22" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H23" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I23" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J23" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K23" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L23" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M23" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N23" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O23" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P23" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q23" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R23" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S23" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T23" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H24" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I24" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J24" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K24" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L24" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M24" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N24" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O24" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P24" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q24" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R24" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S24" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H25" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I25" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J25" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K25" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L25" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M25" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N25" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O25" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P25" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q25" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R25" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S25" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H26" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I26" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J26" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K26" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L26" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M26" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N26" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O26" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P26" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q26" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R26" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S26" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H27" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I27" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J27" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K27" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L27" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M27" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N27" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O27" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P27" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q27" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R27" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S27" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H28" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I28" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J28" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K28" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L28" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M28" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N28" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O28" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P28" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q28" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R28" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S28" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H29" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I29" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J29" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K29" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L29" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M29" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N29" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O29" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P29" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q29" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R29" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S29" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T29" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H30" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I30" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J30" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K30" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L30" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M30" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N30" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O30" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P30" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q30" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R30" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S30" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H31" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I31" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J31" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K31" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L31" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M31" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N31" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O31" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P31" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q31" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R31" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S31" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H32" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I32" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J32" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K32" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L32" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M32" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N32" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O32" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P32" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q32" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R32" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S32" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H33" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I33" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J33" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K33" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L33" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M33" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N33" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O33" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P33" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q33" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R33" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S33" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H34" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I34" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J34" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K34" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L34" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M34" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N34" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O34" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P34" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q34" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R34" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S34" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H35" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I35" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J35" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K35" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L35" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M35" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N35" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O35" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P35" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R35" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S35" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H36" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I36" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J36" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K36" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L36" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M36" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N36" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O36" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P36" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R36" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S36" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H37" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I37" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J37" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K37" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L37" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M37" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N37" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O37" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P37" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q37" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R37" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S37" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H38" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I38" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J38" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K38" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L38" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M38" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N38" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O38" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P38" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R38" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S38" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T38" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H39" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I39" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J39" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K39" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L39" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M39" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N39" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O39" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P39" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q39" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R39" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S39" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H40" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I40" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J40" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K40" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L40" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M40" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N40" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O40" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P40" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q40" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R40" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S40" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H41" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I41" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J41" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K41" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L41" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M41" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N41" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O41" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P41" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q41" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R41" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S41" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T41" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H42" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I42" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J42" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K42" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L42" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M42" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N42" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O42" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P42" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q42" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R42" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S42" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H43" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I43" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J43" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K43" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L43" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M43" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N43" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O43" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P43" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q43" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R43" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S43" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4273920544935326</v>
+        <v>0.4273920544935324</v>
       </c>
       <c r="H44" t="n">
-        <v>4.377028878081892</v>
+        <v>4.37702887808189</v>
       </c>
       <c r="I44" t="n">
         <v>16.47703218086193</v>
       </c>
       <c r="J44" t="n">
-        <v>36.2743663850705</v>
+        <v>36.27436638507048</v>
       </c>
       <c r="K44" t="n">
-        <v>54.36587205178174</v>
+        <v>54.36587205178171</v>
       </c>
       <c r="L44" t="n">
-        <v>67.44567163948821</v>
+        <v>67.44567163948817</v>
       </c>
       <c r="M44" t="n">
-        <v>75.04630508858757</v>
+        <v>75.04630508858753</v>
       </c>
       <c r="N44" t="n">
-        <v>76.26063276341732</v>
+        <v>76.26063276341728</v>
       </c>
       <c r="O44" t="n">
-        <v>72.01075302154726</v>
+        <v>72.01075302154722</v>
       </c>
       <c r="P44" t="n">
-        <v>61.45951167623816</v>
+        <v>61.45951167623812</v>
       </c>
       <c r="Q44" t="n">
-        <v>46.1535337246885</v>
+        <v>46.15353372468848</v>
       </c>
       <c r="R44" t="n">
-        <v>26.84716614307939</v>
+        <v>26.84716614307938</v>
       </c>
       <c r="S44" t="n">
-        <v>9.739196441771385</v>
+        <v>9.73919644177138</v>
       </c>
       <c r="T44" t="n">
-        <v>1.87090871854544</v>
+        <v>1.870908718545439</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03419136435948261</v>
+        <v>0.03419136435948258</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2286749091566106</v>
+        <v>0.2286749091566105</v>
       </c>
       <c r="H45" t="n">
-        <v>2.208518201591476</v>
+        <v>2.208518201591475</v>
       </c>
       <c r="I45" t="n">
-        <v>7.873237003856988</v>
+        <v>7.873237003856985</v>
       </c>
       <c r="J45" t="n">
-        <v>21.60476411466031</v>
+        <v>21.60476411466029</v>
       </c>
       <c r="K45" t="n">
-        <v>36.92598302815321</v>
+        <v>36.92598302815319</v>
       </c>
       <c r="L45" t="n">
-        <v>49.65154113069302</v>
+        <v>49.65154113069299</v>
       </c>
       <c r="M45" t="n">
-        <v>57.94100658762014</v>
+        <v>57.94100658762011</v>
       </c>
       <c r="N45" t="n">
-        <v>59.47453262314847</v>
+        <v>59.47453262314844</v>
       </c>
       <c r="O45" t="n">
-        <v>54.40757805709936</v>
+        <v>54.40757805709933</v>
       </c>
       <c r="P45" t="n">
-        <v>43.66687804763383</v>
+        <v>43.6668780476338</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.19015156181577</v>
+        <v>29.19015156181575</v>
       </c>
       <c r="R45" t="n">
-        <v>14.19790357026746</v>
+        <v>14.19790357026745</v>
       </c>
       <c r="S45" t="n">
-        <v>4.247536141571251</v>
+        <v>4.247536141571248</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9217203575216011</v>
+        <v>0.9217203575216006</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01504440191819807</v>
+        <v>0.01504440191819806</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1917133621488409</v>
+        <v>0.1917133621488408</v>
       </c>
       <c r="H46" t="n">
         <v>1.704506074377877</v>
       </c>
       <c r="I46" t="n">
-        <v>5.76534365443969</v>
+        <v>5.765343654439687</v>
       </c>
       <c r="J46" t="n">
-        <v>13.55413470392305</v>
+        <v>13.55413470392304</v>
       </c>
       <c r="K46" t="n">
-        <v>22.27360698420169</v>
+        <v>22.27360698420168</v>
       </c>
       <c r="L46" t="n">
-        <v>28.50254840529222</v>
+        <v>28.50254840529221</v>
       </c>
       <c r="M46" t="n">
-        <v>30.05194094120421</v>
+        <v>30.05194094120419</v>
       </c>
       <c r="N46" t="n">
-        <v>29.3373729550131</v>
+        <v>29.33737295501308</v>
       </c>
       <c r="O46" t="n">
-        <v>27.09781231536527</v>
+        <v>27.09781231536525</v>
       </c>
       <c r="P46" t="n">
-        <v>23.18685972752889</v>
+        <v>23.18685972752888</v>
       </c>
       <c r="Q46" t="n">
         <v>16.05337980684521</v>
       </c>
       <c r="R46" t="n">
-        <v>8.620129901710607</v>
+        <v>8.620129901710603</v>
       </c>
       <c r="S46" t="n">
-        <v>3.341041047630253</v>
+        <v>3.341041047630251</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8191389109995927</v>
+        <v>0.8191389109995922</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01045709248084588</v>
+        <v>0.01045709248084587</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>69.34789868787088</v>
       </c>
       <c r="K11" t="n">
-        <v>23.67947158358708</v>
+        <v>48.39545783628785</v>
       </c>
       <c r="L11" t="n">
-        <v>45.79869349898772</v>
+        <v>45.79869349898762</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="O11" t="n">
-        <v>72.40356150710426</v>
+        <v>25.36217291520316</v>
       </c>
       <c r="P11" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.38106515843394</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35480,7 +35480,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>69.44556422910053</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>69.44556422910037</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35547,7 +35547,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>32.225777156452</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35559,22 +35559,22 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>53.59677039642499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>64.43430555666809</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="K13" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.44973009533624</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.1205794399427</v>
       </c>
       <c r="J14" t="n">
-        <v>37.82761861563427</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="K14" t="n">
-        <v>48.39545783628794</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>45.79869349898762</v>
       </c>
       <c r="M14" t="n">
-        <v>58.81950869080158</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>44.49446734596989</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>56.03197842934718</v>
       </c>
       <c r="P14" t="n">
-        <v>44.34595275045536</v>
+        <v>19.93047522140166</v>
       </c>
       <c r="Q14" t="n">
-        <v>37.96728067972576</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.83856368501279</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35702,7 +35702,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>41.41093784117101</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>19.68817476192009</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>69.44556422910053</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35765,7 +35765,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>8.346451626009269</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -35781,28 +35781,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.87261573085885</v>
       </c>
       <c r="D16" t="n">
-        <v>65.50396381127439</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>67.68547418291752</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>46.32017083317682</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.69876319576871</v>
       </c>
       <c r="J16" t="n">
-        <v>38.43271846509352</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35875,19 +35875,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>12.74642708286484</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="L17" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,25 +35899,25 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>72.40356150710426</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="S17" t="n">
-        <v>56.73173799970997</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>49.38622323215964</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -36115,16 +36115,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>49.38622323215966</v>
       </c>
       <c r="J20" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>49.38622323215962</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="V20" t="n">
         <v>20.0919418504152</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>12.74642708286484</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>36.63979614929481</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>72.40356150710431</v>
       </c>
       <c r="P23" t="n">
-        <v>69.4781650825748</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36382,16 +36382,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>72.40356150710426</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>20.0919418504152</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36589,37 +36589,37 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>27.22608345604193</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>245.5500178760439</v>
+        <v>76.4534027039701</v>
       </c>
       <c r="K26" t="n">
-        <v>158.4214335779659</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
+        <v>317.4115053229725</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>430.5925962394319</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>284.1944935788106</v>
-      </c>
       <c r="O26" t="n">
-        <v>63.13748244544644</v>
+        <v>342.0451936527253</v>
       </c>
       <c r="P26" t="n">
-        <v>216.5187540710069</v>
+        <v>373.2501649380371</v>
       </c>
       <c r="Q26" t="n">
-        <v>257.3877753557296</v>
+        <v>45.0727846958249</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>98.2029890475156</v>
       </c>
       <c r="S26" t="n">
-        <v>21.94406770111195</v>
+        <v>21.94406770111194</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36698,7 +36698,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -36741,13 +36741,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>53.42567484927599</v>
       </c>
       <c r="H28" t="n">
-        <v>60.7022744125242</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>71.53980957276731</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -36762,13 +36762,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>114.4641530977488</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>50.20094308822972</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36826,37 +36826,37 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>27.22608345604193</v>
+        <v>27.22608345604195</v>
       </c>
       <c r="J29" t="n">
         <v>245.5500178760439</v>
       </c>
       <c r="K29" t="n">
-        <v>35.72438954096652</v>
+        <v>379.6463744235518</v>
       </c>
       <c r="L29" t="n">
-        <v>249.3404712199514</v>
+        <v>331.0559598651464</v>
       </c>
       <c r="M29" t="n">
-        <v>176.3881907519113</v>
+        <v>294.2136053541473</v>
       </c>
       <c r="N29" t="n">
-        <v>430.5925962394319</v>
+        <v>68.07251001241229</v>
       </c>
       <c r="O29" t="n">
-        <v>430.5925962394319</v>
+        <v>259.7047317427759</v>
       </c>
       <c r="P29" t="n">
-        <v>51.45145676655452</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.1628345101437</v>
+        <v>45.07278469582493</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>32.48656917453319</v>
       </c>
       <c r="S29" t="n">
-        <v>21.94406770111195</v>
+        <v>21.94406770111197</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>47.69624064140771</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>47.6962406414078</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.32361454063317</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>114.8428129696399</v>
+        <v>49.14520280590415</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>73.46954533424167</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>52.55167937012705</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>27.22608345604192</v>
       </c>
       <c r="J32" t="n">
-        <v>76.45340270397014</v>
+        <v>245.5500178760439</v>
       </c>
       <c r="K32" t="n">
-        <v>229.4193573159426</v>
+        <v>193.4765783862824</v>
       </c>
       <c r="L32" t="n">
-        <v>249.3404712199514</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>325.2460945534505</v>
+        <v>430.5925962394319</v>
       </c>
       <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>430.5925962394319</v>
       </c>
-      <c r="O32" t="n">
-        <v>63.13748244544647</v>
-      </c>
       <c r="P32" t="n">
-        <v>51.45145676655455</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>257.3877753557296</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>98.2029890475156</v>
       </c>
       <c r="S32" t="n">
-        <v>21.94406770111198</v>
+        <v>21.94406770111194</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>47.69624064140771</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>47.6962406414078</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37215,19 +37215,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>53.42567484927601</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>35.96743363801155</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>65.30021280116466</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37239,13 +37239,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>109.8662147091084</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.77331902298531</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,40 +37300,40 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>50.64139524743943</v>
+        <v>50.64139524743945</v>
       </c>
       <c r="J35" t="n">
-        <v>268.9653296674414</v>
+        <v>99.86871449536763</v>
       </c>
       <c r="K35" t="n">
-        <v>358.1890347323277</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>76.31950930648438</v>
+        <v>76.31950930648436</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="N35" t="n">
-        <v>127.5233484962172</v>
+        <v>281.9114974466944</v>
       </c>
       <c r="O35" t="n">
-        <v>86.55279423684394</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="P35" t="n">
-        <v>358.1890347323277</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>68.48809648722242</v>
+        <v>68.48809648722244</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.90188096593069</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>45.35937949250948</v>
       </c>
       <c r="T35" t="n">
-        <v>23.41531179139749</v>
+        <v>23.41531179139752</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>7.197970129513493</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37415,7 +37415,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>7.197970129513519</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>92.89710847207309</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>92.897108472073</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>50.64139524743943</v>
+        <v>50.64139524743953</v>
       </c>
       <c r="J38" t="n">
-        <v>99.86871449536761</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>78.91627364378459</v>
+        <v>78.91627364378468</v>
       </c>
       <c r="L38" t="n">
-        <v>76.31950930648438</v>
+        <v>76.31950930648445</v>
       </c>
       <c r="M38" t="n">
-        <v>89.34032449829824</v>
+        <v>89.34032449829832</v>
       </c>
       <c r="N38" t="n">
-        <v>284.1944935788106</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="O38" t="n">
-        <v>86.55279423684394</v>
+        <v>86.55279423684401</v>
       </c>
       <c r="P38" t="n">
-        <v>270.3860020851067</v>
+        <v>272.8448636355575</v>
       </c>
       <c r="Q38" t="n">
-        <v>280.8030871471271</v>
+        <v>280.8030871471272</v>
       </c>
       <c r="R38" t="n">
-        <v>55.90188096593067</v>
+        <v>55.90188096593077</v>
       </c>
       <c r="S38" t="n">
-        <v>45.35937949250945</v>
+        <v>45.35937949250956</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>23.4153117913976</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>7.197970129513522</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>7.1979701295134</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>16.93011731054812</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>92.89710847207309</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>75.96699116152463</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,40 +37774,40 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>50.64139524743945</v>
       </c>
       <c r="J41" t="n">
-        <v>99.86871449536753</v>
+        <v>268.9653296674414</v>
       </c>
       <c r="K41" t="n">
-        <v>78.91627364378451</v>
+        <v>78.91627364378459</v>
       </c>
       <c r="L41" t="n">
-        <v>76.31950930648429</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>358.189034732328</v>
+        <v>330.2014527978148</v>
       </c>
       <c r="N41" t="n">
-        <v>91.48782180380972</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="O41" t="n">
-        <v>288.5419700042253</v>
+        <v>72.48927999885068</v>
       </c>
       <c r="P41" t="n">
-        <v>277.1552414671532</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>68.48809648722234</v>
+        <v>68.48809648722244</v>
       </c>
       <c r="R41" t="n">
-        <v>55.90188096593059</v>
+        <v>121.6183008389131</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>45.35937949250948</v>
       </c>
       <c r="T41" t="n">
-        <v>23.4153117913974</v>
+        <v>23.41531179139752</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>7.197970129513493</v>
       </c>
       <c r="N42" t="n">
-        <v>7.197970129513608</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37926,13 +37926,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>16.93011731054891</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>68.93241282443159</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37959,10 +37959,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>75.96699116152445</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>23.96469564764143</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>268.9653296674414</v>
       </c>
       <c r="K44" t="n">
-        <v>78.91627364378451</v>
+        <v>78.91627364378459</v>
       </c>
       <c r="L44" t="n">
-        <v>76.31950930648429</v>
+        <v>76.31950930648436</v>
       </c>
       <c r="M44" t="n">
-        <v>334.5404459536971</v>
+        <v>89.34032449829823</v>
       </c>
       <c r="N44" t="n">
-        <v>358.189034732328</v>
+        <v>91.48782180380979</v>
       </c>
       <c r="O44" t="n">
-        <v>358.189034732328</v>
+        <v>358.1890347323276</v>
       </c>
       <c r="P44" t="n">
-        <v>74.86676855795193</v>
+        <v>301.1414982590742</v>
       </c>
       <c r="Q44" t="n">
-        <v>68.48809648722234</v>
+        <v>85.14937150257389</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.35937949250936</v>
+        <v>45.35937949250948</v>
       </c>
       <c r="T44" t="n">
-        <v>23.4153117913974</v>
+        <v>23.41531179139752</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38120,7 +38120,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>7.197970129513493</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -38129,7 +38129,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>7.197970129513608</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.89710847207334</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>92.897108472073</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
